--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_28_45.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_28_45.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>146019.3066329444</v>
+        <v>25236447.04365593</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>146019.3066329444</v>
+        <v>25236447.04365593</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1895.486701921228</v>
+        <v>131860.2816920782</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1895.486701921228</v>
+        <v>131860.2816920782</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>958177691.6361502</v>
+        <v>38430825.40273084</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6975.975247655211</v>
+        <v>789483.8680968375</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>13924.95297506489</v>
+        <v>1573595.229664811</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20873.93070247455</v>
+        <v>2357706.591232786</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>27953.58690188446</v>
+        <v>3144341.547200761</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>35026.24310129441</v>
+        <v>3929583.503168736</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>42093.42448974818</v>
+        <v>4714711.826594165</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>49162.46723320253</v>
+        <v>5500210.559664709</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>56231.50997665687</v>
+        <v>6285709.292735254</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>63363.96886049341</v>
+        <v>7072253.356983432</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>70416.34890919241</v>
+        <v>7852245.664707555</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>77504.49952313636</v>
+        <v>8639356.31491543</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>84478.6522813936</v>
+        <v>9425252.208677728</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>91452.0102824059</v>
+        <v>10210989.94574828</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>98478.57132392425</v>
+        <v>11001399.68281883</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>105544.5193928749</v>
+        <v>11780348.74922393</v>
       </c>
     </row>
   </sheetData>
@@ -27040,25 +27040,25 @@
         <v>49</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>375</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
         <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>364</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>255</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
         <v>58</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
